--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,9 +360,6 @@
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,9 +370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,12 +386,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60" vertical="center"/>
@@ -3805,7 +3793,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="859366" y="16390937"/>
+      <a:off x="859366" y="16390936"/>
       <a:ext cx="4094955" cy="2537617"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -6601,8 +6589,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="5372100" y="16390937"/>
-      <a:ext cx="3974040" cy="2501633"/>
+      <a:off x="5372100" y="16390936"/>
+      <a:ext cx="3974040" cy="2501632"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7299,7 +7287,7 @@
   <c:spPr bwMode="auto">
     <a:xfrm>
       <a:off x="5372100" y="19379671"/>
-      <a:ext cx="3974040" cy="2501633"/>
+      <a:ext cx="3974040" cy="2501632"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -7996,7 +7984,7 @@
   <c:spPr bwMode="auto">
     <a:xfrm>
       <a:off x="5326062" y="22284796"/>
-      <a:ext cx="3974040" cy="2501633"/>
+      <a:ext cx="3974040" cy="2501632"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -9306,7 +9294,7 @@
   <c:spPr bwMode="auto">
     <a:xfrm>
       <a:off x="5326062" y="25243366"/>
-      <a:ext cx="3974040" cy="2501633"/>
+      <a:ext cx="3974040" cy="2501632"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -22584,7 +22572,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="865716" y="11023599"/>
+      <a:off x="865716" y="11023598"/>
       <a:ext cx="4126705" cy="2585242"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -45800,7 +45788,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:colOff>523873</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>118268</xdr:rowOff>
     </xdr:from>
@@ -45914,7 +45902,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="865716" y="11023599"/>
+        <a:off x="865716" y="11023598"/>
         <a:ext cx="4126705" cy="2585242"/>
       </xdr:xfrm>
       <a:graphic>
@@ -45998,7 +45986,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170390</xdr:colOff>
+      <xdr:colOff>170389</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>96042</xdr:rowOff>
     </xdr:to>
@@ -46030,7 +46018,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170390</xdr:colOff>
+      <xdr:colOff>170389</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>171713</xdr:rowOff>
     </xdr:to>
@@ -46058,7 +46046,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>134407</xdr:rowOff>
+      <xdr:rowOff>134406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -46170,7 +46158,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="859366" y="16390937"/>
+        <a:off x="859366" y="16390936"/>
         <a:ext cx="4094955" cy="2537617"/>
       </xdr:xfrm>
       <a:graphic>
@@ -46286,7 +46274,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170390</xdr:colOff>
+      <xdr:colOff>170389</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>33071</xdr:rowOff>
     </xdr:to>
@@ -46298,8 +46286,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5372100" y="16390937"/>
-        <a:ext cx="3974040" cy="2501633"/>
+        <a:off x="5372100" y="16390936"/>
+        <a:ext cx="3974040" cy="2501632"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -46314,11 +46302,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>170921</xdr:rowOff>
+      <xdr:rowOff>170920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170390</xdr:colOff>
+      <xdr:colOff>170389</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>53180</xdr:rowOff>
     </xdr:to>
@@ -46331,7 +46319,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5372100" y="19379671"/>
-        <a:ext cx="3974040" cy="2501633"/>
+        <a:ext cx="3974040" cy="2501632"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -46363,7 +46351,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5326062" y="22284796"/>
-        <a:ext cx="3974040" cy="2501633"/>
+        <a:ext cx="3974040" cy="2501632"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -46378,7 +46366,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>373062</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>97366</xdr:rowOff>
+      <xdr:rowOff>97365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -46395,7 +46383,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5326062" y="25243366"/>
-        <a:ext cx="3974040" cy="2501633"/>
+        <a:ext cx="3974040" cy="2501632"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -46506,7 +46494,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>555624</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>129116</xdr:rowOff>
+      <xdr:rowOff>129115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -46640,7 +46628,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1320</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>61116</xdr:rowOff>
+      <xdr:rowOff>61115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -46670,7 +46658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170389</xdr:colOff>
+      <xdr:colOff>170388</xdr:colOff>
       <xdr:row>208</xdr:row>
       <xdr:rowOff>88632</xdr:rowOff>
     </xdr:to>
@@ -46702,9 +46690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170389</xdr:colOff>
+      <xdr:colOff>170388</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>48945</xdr:rowOff>
+      <xdr:rowOff>48944</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -46734,9 +46722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170389</xdr:colOff>
+      <xdr:colOff>170388</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>149749</xdr:rowOff>
+      <xdr:rowOff>149748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -47463,51 +47451,51 @@
         <v>0.028434000000000001</v>
       </c>
       <c r="S3">
-        <f>E$3/$D6</f>
+        <f t="shared" ref="S3:S6" si="0">E$3/$D6</f>
         <v>0.028435999999999999</v>
       </c>
       <c r="T3">
-        <f>F$3/$D6</f>
+        <f t="shared" ref="T3:T6" si="1">F$3/$D6</f>
         <v>0.028472000000000001</v>
       </c>
       <c r="U3">
-        <f>G$3/$D6</f>
+        <f t="shared" ref="U3:U6" si="2">G$3/$D6</f>
         <v>0.029302000000000002</v>
       </c>
       <c r="V3">
-        <f>H$3/$D6</f>
+        <f t="shared" ref="V3:V6" si="3">H$3/$D6</f>
         <v>0.028712000000000001</v>
       </c>
       <c r="W3">
-        <f>I$3/$D6</f>
+        <f t="shared" ref="W3:W6" si="4">I$3/$D6</f>
         <v>0.029555999999999999</v>
       </c>
       <c r="X3">
-        <f>J$3/$D6</f>
+        <f t="shared" ref="X3:X6" si="5">J$3/$D6</f>
         <v>0.028805999999999998</v>
       </c>
       <c r="Y3">
-        <f>K$3/$D6</f>
+        <f t="shared" ref="Y3:Y6" si="6">K$3/$D6</f>
         <v>0.02895</v>
       </c>
       <c r="Z3">
-        <f>L$3/$D6</f>
+        <f t="shared" ref="Z3:Z6" si="7">L$3/$D6</f>
         <v>0.029007999999999999</v>
       </c>
       <c r="AA3">
-        <f>M$3/$D6</f>
+        <f t="shared" ref="AA3:AA6" si="8">M$3/$D6</f>
         <v>0.028502</v>
       </c>
       <c r="AB3">
-        <f>N$3/$D6</f>
+        <f t="shared" ref="AB3:AB6" si="9">N$3/$D6</f>
         <v>0.028670000000000001</v>
       </c>
       <c r="AC3">
-        <f>O$3/$D6</f>
+        <f t="shared" ref="AC3:AC6" si="10">O$3/$D6</f>
         <v>0.028639000000000001</v>
       </c>
       <c r="AD3">
-        <f>P$3/$D6</f>
+        <f t="shared" ref="AD3:AD6" si="11">P$3/$D6</f>
         <v>0.028434000000000001</v>
       </c>
     </row>
@@ -47532,51 +47520,51 @@
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
       <c r="S4">
-        <f>E$3/$D7</f>
+        <f t="shared" si="0"/>
         <v>0.014218</v>
       </c>
       <c r="T4">
-        <f>F$3/$D7</f>
+        <f t="shared" si="1"/>
         <v>0.014236</v>
       </c>
       <c r="U4">
-        <f>G$3/$D7</f>
+        <f t="shared" si="2"/>
         <v>0.014651000000000001</v>
       </c>
       <c r="V4">
-        <f>H$3/$D7</f>
+        <f t="shared" si="3"/>
         <v>0.014356000000000001</v>
       </c>
       <c r="W4">
-        <f>I$3/$D7</f>
+        <f t="shared" si="4"/>
         <v>0.014777999999999999</v>
       </c>
       <c r="X4">
-        <f>J$3/$D7</f>
+        <f t="shared" si="5"/>
         <v>0.014402999999999999</v>
       </c>
       <c r="Y4">
-        <f>K$3/$D7</f>
+        <f t="shared" si="6"/>
         <v>0.014475</v>
       </c>
       <c r="Z4">
-        <f>L$3/$D7</f>
+        <f t="shared" si="7"/>
         <v>0.014504</v>
       </c>
       <c r="AA4">
-        <f>M$3/$D7</f>
+        <f t="shared" si="8"/>
         <v>0.014251</v>
       </c>
       <c r="AB4">
-        <f>N$3/$D7</f>
+        <f t="shared" si="9"/>
         <v>0.014335000000000001</v>
       </c>
       <c r="AC4">
-        <f>O$3/$D7</f>
+        <f t="shared" si="10"/>
         <v>0.014319500000000001</v>
       </c>
       <c r="AD4">
-        <f>P$3/$D7</f>
+        <f t="shared" si="11"/>
         <v>0.014217</v>
       </c>
     </row>
@@ -47606,7 +47594,7 @@
       <c r="L5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -47619,537 +47607,537 @@
         <v>7</v>
       </c>
       <c r="S5">
-        <f>E$3/$D8</f>
+        <f t="shared" si="0"/>
         <v>0.0094786666666666665</v>
       </c>
       <c r="T5">
-        <f>F$3/$D8</f>
+        <f t="shared" si="1"/>
         <v>0.0094906666666666663</v>
       </c>
       <c r="U5">
-        <f>G$3/$D8</f>
+        <f t="shared" si="2"/>
         <v>0.0097673333333333345</v>
       </c>
       <c r="V5">
-        <f>H$3/$D8</f>
+        <f t="shared" si="3"/>
         <v>0.0095706666666666666</v>
       </c>
       <c r="W5">
-        <f>I$3/$D8</f>
+        <f t="shared" si="4"/>
         <v>0.0098519999999999996</v>
       </c>
       <c r="X5">
-        <f>J$3/$D8</f>
+        <f t="shared" si="5"/>
         <v>0.0096019999999999994</v>
       </c>
       <c r="Y5">
-        <f>K$3/$D8</f>
+        <f t="shared" si="6"/>
         <v>0.0096500000000000006</v>
       </c>
       <c r="Z5">
-        <f>L$3/$D8</f>
+        <f t="shared" si="7"/>
         <v>0.0096693333333333336</v>
       </c>
       <c r="AA5">
-        <f>M$3/$D8</f>
+        <f t="shared" si="8"/>
         <v>0.0095006666666666659</v>
       </c>
       <c r="AB5">
-        <f>N$3/$D8</f>
+        <f t="shared" si="9"/>
         <v>0.0095566666666666664</v>
       </c>
       <c r="AC5">
-        <f>O$3/$D8</f>
+        <f t="shared" si="10"/>
         <v>0.0095463333333333338</v>
       </c>
       <c r="AD5">
-        <f>P$3/$D8</f>
+        <f t="shared" si="11"/>
         <v>0.0094780000000000003</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
-        <v>0.027591000000000001</v>
+      <c r="E6" s="14">
+        <v>0.028590999999999998</v>
       </c>
-      <c r="F6" s="16">
-        <v>0.01248</v>
+      <c r="F6" s="15">
+        <v>0.028479999999999998</v>
       </c>
-      <c r="G6" s="16">
-        <v>0.012537</v>
+      <c r="G6" s="15">
+        <v>0.029537000000000001</v>
       </c>
-      <c r="H6" s="17">
-        <v>0.012965000000000001</v>
+      <c r="H6" s="16">
+        <v>0.029964999999999999</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="14">
         <v>0.110805</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>0.110331</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>0.11011</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>0.11178100000000001</v>
       </c>
-      <c r="M6" s="16">
-        <v>0.027536999999999999</v>
+      <c r="M6" s="15">
+        <v>0.028537</v>
       </c>
-      <c r="N6" s="16">
-        <v>0.027498000000000002</v>
+      <c r="N6" s="15">
+        <v>0.028497999999999999</v>
       </c>
-      <c r="O6" s="16">
-        <v>0.027519999999999999</v>
+      <c r="O6" s="15">
+        <v>0.02852</v>
       </c>
-      <c r="P6" s="17">
-        <v>0.027442999999999999</v>
+      <c r="P6" s="16">
+        <v>0.028443</v>
       </c>
       <c r="S6">
-        <f>E$3/$D9</f>
+        <f t="shared" si="0"/>
         <v>0.0071089999999999999</v>
       </c>
       <c r="T6">
-        <f>F$3/$D9</f>
+        <f t="shared" si="1"/>
         <v>0.0071180000000000002</v>
       </c>
       <c r="U6">
-        <f>G$3/$D9</f>
+        <f t="shared" si="2"/>
         <v>0.0073255000000000004</v>
       </c>
       <c r="V6">
-        <f>H$3/$D9</f>
+        <f t="shared" si="3"/>
         <v>0.0071780000000000004</v>
       </c>
       <c r="W6">
-        <f>I$3/$D9</f>
+        <f t="shared" si="4"/>
         <v>0.0073889999999999997</v>
       </c>
       <c r="X6">
-        <f>J$3/$D9</f>
+        <f t="shared" si="5"/>
         <v>0.0072014999999999996</v>
       </c>
       <c r="Y6">
-        <f>K$3/$D9</f>
+        <f t="shared" si="6"/>
         <v>0.0072375</v>
       </c>
       <c r="Z6">
-        <f>L$3/$D9</f>
+        <f t="shared" si="7"/>
         <v>0.0072519999999999998</v>
       </c>
       <c r="AA6">
-        <f>M$3/$D9</f>
+        <f t="shared" si="8"/>
         <v>0.0071254999999999999</v>
       </c>
       <c r="AB6">
-        <f>N$3/$D9</f>
+        <f t="shared" si="9"/>
         <v>0.0071675000000000003</v>
       </c>
       <c r="AC6">
-        <f>O$3/$D9</f>
+        <f t="shared" si="10"/>
         <v>0.0071597500000000003</v>
       </c>
       <c r="AD6">
-        <f>P$3/$D9</f>
+        <f t="shared" si="11"/>
         <v>0.0071085000000000002</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
-        <v>0.01384</v>
+      <c r="E7" s="14">
+        <v>0.014840000000000001</v>
       </c>
-      <c r="F7" s="16">
-        <v>0.0088430000000000002</v>
+      <c r="F7" s="15">
+        <v>0.014843</v>
       </c>
-      <c r="G7" s="16">
-        <v>0.0081969999999999994</v>
+      <c r="G7" s="15">
+        <v>0.015197</v>
       </c>
-      <c r="H7" s="17">
-        <v>0.0098329999999999997</v>
+      <c r="H7" s="16">
+        <v>0.014833000000000001</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="14">
         <v>0.26217099999999999</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>0.12375700000000001</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>0.086208999999999994</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>0.045580000000000002</v>
       </c>
-      <c r="M7" s="16">
-        <v>0.013729</v>
+      <c r="M7" s="15">
+        <v>0.014343</v>
       </c>
-      <c r="N7" s="16">
-        <v>0.01383</v>
+      <c r="N7" s="15">
+        <v>0.014829999999999999</v>
       </c>
-      <c r="O7" s="16">
-        <v>0.013750999999999999</v>
+      <c r="O7" s="15">
+        <v>0.0143751</v>
       </c>
-      <c r="P7" s="17">
-        <v>0.013757999999999999</v>
+      <c r="P7" s="16">
+        <v>0.014758</v>
       </c>
       <c r="S7">
-        <f>E$3/$D10</f>
+        <f t="shared" ref="S7:S10" si="12">E$3/$D10</f>
         <v>0.0056871999999999999</v>
       </c>
       <c r="T7">
-        <f>F$3/$D10</f>
+        <f t="shared" ref="T7:T10" si="13">F$3/$D10</f>
         <v>0.0056944000000000005</v>
       </c>
       <c r="U7">
-        <f>G$3/$D10</f>
+        <f t="shared" ref="U7:U10" si="14">G$3/$D10</f>
         <v>0.0058604</v>
       </c>
       <c r="V7">
-        <f>H$3/$D10</f>
+        <f t="shared" ref="V7:V10" si="15">H$3/$D10</f>
         <v>0.0057423999999999999</v>
       </c>
       <c r="W7">
-        <f>I$3/$D10</f>
+        <f t="shared" ref="W7:W10" si="16">I$3/$D10</f>
         <v>0.0059112000000000001</v>
       </c>
       <c r="X7">
-        <f>J$3/$D10</f>
+        <f t="shared" ref="X7:X10" si="17">J$3/$D10</f>
         <v>0.0057611999999999993</v>
       </c>
       <c r="Y7">
-        <f>K$3/$D10</f>
+        <f t="shared" ref="Y7:Y10" si="18">K$3/$D10</f>
         <v>0.00579</v>
       </c>
       <c r="Z7">
-        <f>L$3/$D10</f>
+        <f t="shared" ref="Z7:Z10" si="19">L$3/$D10</f>
         <v>0.0058015999999999996</v>
       </c>
       <c r="AA7">
-        <f>M$3/$D10</f>
+        <f t="shared" ref="AA7:AA10" si="20">M$3/$D10</f>
         <v>0.0057003999999999996</v>
       </c>
       <c r="AB7">
-        <f>N$3/$D10</f>
+        <f t="shared" ref="AB7:AB10" si="21">N$3/$D10</f>
         <v>0.0057340000000000004</v>
       </c>
       <c r="AC7">
-        <f>O$3/$D10</f>
+        <f t="shared" ref="AC7:AC10" si="22">O$3/$D10</f>
         <v>0.0057277999999999999</v>
       </c>
       <c r="AD7">
-        <f>P$3/$D10</f>
+        <f t="shared" ref="AD7:AD10" si="23">P$3/$D10</f>
         <v>0.0056868000000000005</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3</v>
       </c>
-      <c r="E8" s="15">
-        <v>0.0093419999999999996</v>
+      <c r="E8" s="14">
+        <v>0.0103342</v>
       </c>
-      <c r="F8" s="16">
-        <v>0.0078860000000000006</v>
+      <c r="F8" s="15">
+        <v>0.0098860000000000007</v>
       </c>
-      <c r="G8" s="16">
-        <v>0.0078790000000000006</v>
+      <c r="G8" s="15">
+        <v>0.010879</v>
       </c>
-      <c r="H8" s="17">
-        <v>0.008515</v>
+      <c r="H8" s="16">
+        <v>0.011514999999999999</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="14">
         <v>0.277366</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>0.108056</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>0.039380999999999999</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>0.015188999999999999</v>
       </c>
-      <c r="M8" s="16">
-        <v>0.0075050000000000004</v>
+      <c r="M8" s="15">
+        <v>0.0095049999999999996</v>
       </c>
-      <c r="N8" s="16">
-        <v>0.0092739999999999993</v>
+      <c r="N8" s="15">
+        <v>0.010274</v>
       </c>
-      <c r="O8" s="16">
-        <v>0.009195</v>
+      <c r="O8" s="15">
+        <v>0.010194999999999999</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>0.0098139999999999998</v>
       </c>
       <c r="S8">
-        <f>E$3/$D11</f>
+        <f t="shared" si="12"/>
         <v>0.0047393333333333332</v>
       </c>
       <c r="T8">
-        <f>F$3/$D11</f>
+        <f t="shared" si="13"/>
         <v>0.0047453333333333332</v>
       </c>
       <c r="U8">
-        <f>G$3/$D11</f>
+        <f t="shared" si="14"/>
         <v>0.0048836666666666672</v>
       </c>
       <c r="V8">
-        <f>H$3/$D11</f>
+        <f t="shared" si="15"/>
         <v>0.0047853333333333333</v>
       </c>
       <c r="W8">
-        <f>I$3/$D11</f>
+        <f t="shared" si="16"/>
         <v>0.0049259999999999998</v>
       </c>
       <c r="X8">
-        <f>J$3/$D11</f>
+        <f t="shared" si="17"/>
         <v>0.0048009999999999997</v>
       </c>
       <c r="Y8">
-        <f>K$3/$D11</f>
+        <f t="shared" si="18"/>
         <v>0.0048250000000000003</v>
       </c>
       <c r="Z8">
-        <f>L$3/$D11</f>
+        <f t="shared" si="19"/>
         <v>0.0048346666666666668</v>
       </c>
       <c r="AA8">
-        <f>M$3/$D11</f>
+        <f t="shared" si="20"/>
         <v>0.004750333333333333</v>
       </c>
       <c r="AB8">
-        <f>N$3/$D11</f>
+        <f t="shared" si="21"/>
         <v>0.0047783333333333332</v>
       </c>
       <c r="AC8">
-        <f>O$3/$D11</f>
+        <f t="shared" si="22"/>
         <v>0.0047731666666666669</v>
       </c>
       <c r="AD8">
-        <f>P$3/$D11</f>
+        <f t="shared" si="23"/>
         <v>0.0047390000000000002</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0.0078549999999999991</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.0074289999999999998</v>
       </c>
-      <c r="G9" s="16">
-        <v>0.0062360000000000002</v>
+      <c r="G9" s="15">
+        <v>0.0092359999999999994</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>0.008633</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <v>0.26445600000000002</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>0.085130999999999998</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>0.019834000000000001</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>0.010488000000000001</v>
       </c>
-      <c r="M9" s="16">
-        <v>0.0062319999999999997</v>
+      <c r="M9" s="15">
+        <v>0.0072319999999999997</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <v>0.0074700000000000001</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>0.0072890000000000003</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <v>0.0077229999999999998</v>
       </c>
       <c r="S9">
-        <f>E$3/$D12</f>
+        <f t="shared" si="12"/>
         <v>0.0040622857142857145</v>
       </c>
       <c r="T9">
-        <f>F$3/$D12</f>
+        <f t="shared" si="13"/>
         <v>0.0040674285714285717</v>
       </c>
       <c r="U9">
-        <f>G$3/$D12</f>
+        <f t="shared" si="14"/>
         <v>0.0041860000000000005</v>
       </c>
       <c r="V9">
-        <f>H$3/$D12</f>
+        <f t="shared" si="15"/>
         <v>0.0041017142857142858</v>
       </c>
       <c r="W9">
-        <f>I$3/$D12</f>
+        <f t="shared" si="16"/>
         <v>0.004222285714285714</v>
       </c>
       <c r="X9">
-        <f>J$3/$D12</f>
+        <f t="shared" si="17"/>
         <v>0.0041151428571428571</v>
       </c>
       <c r="Y9">
-        <f>K$3/$D12</f>
+        <f t="shared" si="18"/>
         <v>0.004135714285714286</v>
       </c>
       <c r="Z9">
-        <f>L$3/$D12</f>
+        <f t="shared" si="19"/>
         <v>0.0041440000000000001</v>
       </c>
       <c r="AA9">
-        <f>M$3/$D12</f>
+        <f t="shared" si="20"/>
         <v>0.0040717142857142853</v>
       </c>
       <c r="AB9">
-        <f>N$3/$D12</f>
+        <f t="shared" si="21"/>
         <v>0.0040957142857142859</v>
       </c>
       <c r="AC9">
-        <f>O$3/$D12</f>
+        <f t="shared" si="22"/>
         <v>0.0040912857142857148</v>
       </c>
       <c r="AD9">
-        <f>P$3/$D12</f>
+        <f t="shared" si="23"/>
         <v>0.0040620000000000005</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>5</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>0.0066899999999999998</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0.006594</v>
       </c>
-      <c r="G10" s="16">
-        <v>0.0072880000000000002</v>
+      <c r="G10" s="15">
+        <v>0.0082880000000000002</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>0.007162</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="14">
         <v>0.23488700000000001</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>0.057223000000000003</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>0.011974</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>0.0078890000000000002</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>0.0057949999999999998</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>0.0061250000000000002</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>0.0062550000000000001</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>0.0061339999999999997</v>
       </c>
       <c r="S10">
-        <f>E$3/$D13</f>
+        <f t="shared" si="12"/>
         <v>0.0035544999999999999</v>
       </c>
       <c r="T10">
-        <f>F$3/$D13</f>
+        <f t="shared" si="13"/>
         <v>0.0035590000000000001</v>
       </c>
       <c r="U10">
-        <f>G$3/$D13</f>
+        <f t="shared" si="14"/>
         <v>0.0036627500000000002</v>
       </c>
       <c r="V10">
-        <f>H$3/$D13</f>
+        <f t="shared" si="15"/>
         <v>0.0035890000000000002</v>
       </c>
       <c r="W10">
-        <f>I$3/$D13</f>
+        <f t="shared" si="16"/>
         <v>0.0036944999999999999</v>
       </c>
       <c r="X10">
-        <f>J$3/$D13</f>
+        <f t="shared" si="17"/>
         <v>0.0036007499999999998</v>
       </c>
       <c r="Y10">
-        <f>K$3/$D13</f>
+        <f t="shared" si="18"/>
         <v>0.00361875</v>
       </c>
       <c r="Z10">
-        <f>L$3/$D13</f>
+        <f t="shared" si="19"/>
         <v>0.0036259999999999999</v>
       </c>
       <c r="AA10">
-        <f>M$3/$D13</f>
+        <f t="shared" si="20"/>
         <v>0.0035627499999999999</v>
       </c>
       <c r="AB10">
-        <f>N$3/$D13</f>
+        <f t="shared" si="21"/>
         <v>0.0035837500000000001</v>
       </c>
       <c r="AC10">
-        <f>O$3/$D13</f>
+        <f t="shared" si="22"/>
         <v>0.0035798750000000002</v>
       </c>
       <c r="AD10">
-        <f>P$3/$D13</f>
+        <f t="shared" si="23"/>
         <v>0.0035542500000000001</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>6</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="14">
         <v>0.0059329999999999999</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>0.0069760000000000004</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0.007365</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>0.0064019999999999997</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="14">
         <v>0.21088399999999999</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>0.042798000000000003</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>0.0091389999999999996</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>0.0065700000000000003</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>0.0055409999999999999</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>0.0056480000000000002</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <v>0.0057990000000000003</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>0.0055710000000000004</v>
       </c>
       <c r="S11">
@@ -48178,904 +48166,904 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>7</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="14">
         <v>0.0067990000000000004</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>0.0082640000000000005</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0.0071339999999999997</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>0.0069560000000000004</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="14">
         <v>0.197548</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>0.032403000000000001</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>0.0089720000000000008</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>0.0062420000000000002</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>0.0055079999999999999</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <v>0.0052500000000000003</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="15">
         <v>0.0064920000000000004</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>0.0054819999999999999</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>8</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="14">
         <v>0.0092809999999999993</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0.010137</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0.011094</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>0.0096659999999999992</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="14">
         <v>0.199793</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>0.028538999999999998</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>0.011816</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>0.0082799999999999992</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <v>0.0093980000000000001</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>0.0084930000000000005</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>0.0078009999999999998</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>0.0078980000000000005</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="20">
-        <f>E$3/E6</f>
-        <v>1.0306259287448805</v>
+      <c r="E14" s="18">
+        <f t="shared" ref="E14:E17" si="24">E$3/E6</f>
+        <v>0.99457871358119687</v>
       </c>
-      <c r="F14" s="21">
-        <f>F$3/F6</f>
-        <v>2.2814102564102563</v>
+      <c r="F14" s="19">
+        <f t="shared" ref="F14:F17" si="25">F$3/F6</f>
+        <v>0.99971910112359563</v>
       </c>
-      <c r="G14" s="21">
-        <f>G$3/G6</f>
-        <v>2.3372417643774428</v>
+      <c r="G14" s="19">
+        <f t="shared" ref="G14:G17" si="26">G$3/G6</f>
+        <v>0.99204387717100584</v>
       </c>
-      <c r="H14" s="22">
-        <f>H$3/H6</f>
-        <v>2.214577709217123</v>
+      <c r="H14" s="20">
+        <f t="shared" ref="H14:H17" si="27">H$3/H6</f>
+        <v>0.95818454864008018</v>
       </c>
-      <c r="I14" s="20">
-        <f>I$3/I6</f>
+      <c r="I14" s="18">
+        <f t="shared" ref="I14:I17" si="28">I$3/I6</f>
         <v>0.26673886557465815</v>
       </c>
-      <c r="J14" s="21">
-        <f>J$3/J6</f>
+      <c r="J14" s="19">
+        <f t="shared" ref="J14:J17" si="29">J$3/J6</f>
         <v>0.26108709247627593</v>
       </c>
-      <c r="K14" s="21">
-        <f>K$3/K6</f>
+      <c r="K14" s="19">
+        <f t="shared" ref="K14:K17" si="30">K$3/K6</f>
         <v>0.26291889928253565</v>
       </c>
-      <c r="L14" s="22">
-        <f>L$3/L6</f>
+      <c r="L14" s="20">
+        <f t="shared" ref="L14:L17" si="31">L$3/L6</f>
         <v>0.2595074297063007</v>
       </c>
-      <c r="M14" s="21">
-        <f>M$3/M6</f>
-        <v>1.0350437593056614</v>
+      <c r="M14" s="19">
+        <f t="shared" ref="M14:M17" si="32">M$3/M6</f>
+        <v>0.9987735220941234</v>
       </c>
-      <c r="N14" s="21">
-        <f>N$3/N6</f>
-        <v>1.0426212815477489</v>
+      <c r="N14" s="19">
+        <f t="shared" ref="N14:N17" si="33">N$3/N6</f>
+        <v>1.0060355112639485</v>
       </c>
-      <c r="O14" s="21">
-        <f>O$3/O6</f>
-        <v>1.0406613372093023</v>
+      <c r="O14" s="19">
+        <f t="shared" ref="O14:O17" si="34">O$3/O6</f>
+        <v>1.0041725105189341</v>
       </c>
-      <c r="P14" s="22">
-        <f>P$3/P6</f>
-        <v>1.0361112123310134</v>
+      <c r="P14" s="20">
+        <f t="shared" ref="P14:P17" si="35">P$3/P6</f>
+        <v>0.99968357768167915</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="D15" s="23"/>
-      <c r="E15" s="15">
-        <f>E$3/E7</f>
-        <v>2.0546242774566474</v>
+      <c r="D15" s="21"/>
+      <c r="E15" s="14">
+        <f t="shared" si="24"/>
+        <v>1.9161725067385444</v>
       </c>
-      <c r="F15" s="24">
-        <f>F$3/F7</f>
-        <v>3.2197218138640733</v>
+      <c r="F15" s="15">
+        <f t="shared" si="25"/>
+        <v>1.9182106043252711</v>
       </c>
-      <c r="G15" s="24">
-        <f>G$3/G7</f>
-        <v>3.5747224594363796</v>
+      <c r="G15" s="15">
+        <f t="shared" si="26"/>
+        <v>1.9281437125748504</v>
       </c>
-      <c r="H15" s="25">
-        <f>H$3/H7</f>
-        <v>2.9199633885894438</v>
+      <c r="H15" s="16">
+        <f t="shared" si="27"/>
+        <v>1.9356839479538865</v>
       </c>
-      <c r="I15" s="15">
-        <f>I$3/I7</f>
+      <c r="I15" s="14">
+        <f t="shared" si="28"/>
         <v>0.11273558097577535</v>
       </c>
-      <c r="J15" s="24">
-        <f>J$3/J7</f>
+      <c r="J15" s="15">
+        <f t="shared" si="29"/>
         <v>0.23276259120696199</v>
       </c>
-      <c r="K15" s="24">
-        <f>K$3/K7</f>
+      <c r="K15" s="15">
+        <f t="shared" si="30"/>
         <v>0.33581180619192896</v>
       </c>
-      <c r="L15" s="25">
-        <f>L$3/L7</f>
+      <c r="L15" s="16">
+        <f t="shared" si="31"/>
         <v>0.63641948222904776</v>
       </c>
-      <c r="M15" s="24">
-        <f>M$3/M7</f>
-        <v>2.0760434117561366</v>
+      <c r="M15" s="15">
+        <f t="shared" si="32"/>
+        <v>1.9871714425155127</v>
       </c>
-      <c r="N15" s="24">
-        <f>N$3/N7</f>
-        <v>2.0730296456977584</v>
+      <c r="N15" s="15">
+        <f t="shared" si="33"/>
+        <v>1.933243425488874</v>
       </c>
-      <c r="O15" s="24">
-        <f>O$3/O7</f>
-        <v>2.0826848956439532</v>
+      <c r="O15" s="15">
+        <f t="shared" si="34"/>
+        <v>1.9922644016389452</v>
       </c>
-      <c r="P15" s="25">
-        <f>P$3/P7</f>
-        <v>2.0667248146532926</v>
+      <c r="P15" s="16">
+        <f t="shared" si="35"/>
+        <v>1.9266838324976285</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="D16" s="23"/>
-      <c r="E16" s="15">
-        <f>E$3/E8</f>
-        <v>3.0438878184542926</v>
+      <c r="D16" s="21"/>
+      <c r="E16" s="14">
+        <f t="shared" si="24"/>
+        <v>2.7516401850167407</v>
       </c>
-      <c r="F16" s="24">
-        <f>F$3/F8</f>
-        <v>3.610448896779102</v>
+      <c r="F16" s="15">
+        <f t="shared" si="25"/>
+        <v>2.8800323690066758</v>
       </c>
-      <c r="G16" s="24">
-        <f>G$3/G8</f>
-        <v>3.7189998730803402</v>
+      <c r="G16" s="15">
+        <f t="shared" si="26"/>
+        <v>2.6934460887949263</v>
       </c>
-      <c r="H16" s="25">
-        <f>H$3/H8</f>
-        <v>3.3719318849089843</v>
+      <c r="H16" s="16">
+        <f t="shared" si="27"/>
+        <v>2.493443334780721</v>
       </c>
-      <c r="I16" s="15">
-        <f>I$3/I8</f>
+      <c r="I16" s="14">
+        <f t="shared" si="28"/>
         <v>0.10655956389752168</v>
       </c>
-      <c r="J16" s="24">
-        <f>J$3/J8</f>
+      <c r="J16" s="15">
+        <f t="shared" si="29"/>
         <v>0.26658399348485967</v>
       </c>
-      <c r="K16" s="24">
-        <f>K$3/K8</f>
+      <c r="K16" s="15">
+        <f t="shared" si="30"/>
         <v>0.73512607602651026</v>
       </c>
-      <c r="L16" s="25">
-        <f>L$3/L8</f>
+      <c r="L16" s="16">
+        <f t="shared" si="31"/>
         <v>1.9098031470142867</v>
       </c>
-      <c r="M16" s="24">
-        <f>M$3/M8</f>
-        <v>3.7977348434377078</v>
+      <c r="M16" s="15">
+        <f t="shared" si="32"/>
+        <v>2.9986322987901106</v>
       </c>
-      <c r="N16" s="24">
-        <f>N$3/N8</f>
-        <v>3.0914384300194095</v>
+      <c r="N16" s="15">
+        <f t="shared" si="33"/>
+        <v>2.7905392252287329</v>
       </c>
-      <c r="O16" s="24">
-        <f>O$3/O8</f>
-        <v>3.1146275149537792</v>
+      <c r="O16" s="15">
+        <f t="shared" si="34"/>
+        <v>2.8091221186856306</v>
       </c>
-      <c r="P16" s="25">
-        <f>P$3/P8</f>
+      <c r="P16" s="16">
+        <f t="shared" si="35"/>
         <v>2.8972895863052783</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="D17" s="23"/>
-      <c r="E17" s="15">
-        <f>E$3/E9</f>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14">
+        <f t="shared" si="24"/>
         <v>3.6201145767027376</v>
       </c>
-      <c r="F17" s="24">
-        <f>F$3/F9</f>
+      <c r="F17" s="15">
+        <f t="shared" si="25"/>
         <v>3.8325481222237179</v>
       </c>
-      <c r="G17" s="24">
-        <f>G$3/G9</f>
-        <v>4.6988454137267484</v>
+      <c r="G17" s="15">
+        <f t="shared" si="26"/>
+        <v>3.1725855348635776</v>
       </c>
-      <c r="H17" s="25">
-        <f>H$3/H9</f>
+      <c r="H17" s="16">
+        <f t="shared" si="27"/>
         <v>3.3258426966292136</v>
       </c>
-      <c r="I17" s="15">
-        <f>I$3/I9</f>
+      <c r="I17" s="14">
+        <f t="shared" si="28"/>
         <v>0.1117615028586986</v>
       </c>
-      <c r="J17" s="24">
-        <f>J$3/J9</f>
+      <c r="J17" s="15">
+        <f t="shared" si="29"/>
         <v>0.33837262571801108</v>
       </c>
-      <c r="K17" s="24">
-        <f>K$3/K9</f>
+      <c r="K17" s="15">
+        <f t="shared" si="30"/>
         <v>1.4596148028637692</v>
       </c>
-      <c r="L17" s="25">
-        <f>L$3/L9</f>
+      <c r="L17" s="16">
+        <f t="shared" si="31"/>
         <v>2.7658276125095345</v>
       </c>
-      <c r="M17" s="24">
-        <f>M$3/M9</f>
-        <v>4.5734916559691916</v>
+      <c r="M17" s="15">
+        <f t="shared" si="32"/>
+        <v>3.9410951327433628</v>
       </c>
-      <c r="N17" s="24">
-        <f>N$3/N9</f>
+      <c r="N17" s="15">
+        <f t="shared" si="33"/>
         <v>3.8380187416331997</v>
       </c>
-      <c r="O17" s="24">
-        <f>O$3/O9</f>
+      <c r="O17" s="15">
+        <f t="shared" si="34"/>
         <v>3.9290712031828785</v>
       </c>
-      <c r="P17" s="25">
-        <f>P$3/P9</f>
+      <c r="P17" s="16">
+        <f t="shared" si="35"/>
         <v>3.6817298977081445</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="D18" s="23"/>
-      <c r="E18" s="15">
-        <f>E$3/E10</f>
+      <c r="D18" s="21"/>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E21" si="36">E$3/E10</f>
         <v>4.2505231689088188</v>
       </c>
-      <c r="F18" s="24">
-        <f>F$3/F10</f>
+      <c r="F18" s="15">
+        <f t="shared" ref="F18:F21" si="37">F$3/F10</f>
         <v>4.3178647255080378</v>
       </c>
-      <c r="G18" s="24">
-        <f>G$3/G10</f>
-        <v>4.0205817782656421</v>
+      <c r="G18" s="15">
+        <f t="shared" ref="G18:G21" si="38">G$3/G10</f>
+        <v>3.5354729729729732</v>
       </c>
-      <c r="H18" s="25">
-        <f>H$3/H10</f>
+      <c r="H18" s="16">
+        <f t="shared" ref="H18:H21" si="39">H$3/H10</f>
         <v>4.008936051382296</v>
       </c>
-      <c r="I18" s="15">
-        <f>I$3/I10</f>
+      <c r="I18" s="14">
+        <f t="shared" ref="I18:I21" si="40">I$3/I10</f>
         <v>0.12583071860085912</v>
       </c>
-      <c r="J18" s="24">
-        <f>J$3/J10</f>
+      <c r="J18" s="15">
+        <f t="shared" ref="J18:J21" si="41">J$3/J10</f>
         <v>0.50339898292644558</v>
       </c>
-      <c r="K18" s="24">
-        <f>K$3/K10</f>
+      <c r="K18" s="15">
+        <f t="shared" ref="K18:K21" si="42">K$3/K10</f>
         <v>2.4177384332720893</v>
       </c>
-      <c r="L18" s="25">
-        <f>L$3/L10</f>
+      <c r="L18" s="16">
+        <f t="shared" ref="L18:L21" si="43">L$3/L10</f>
         <v>3.6770186335403725</v>
       </c>
-      <c r="M18" s="24">
-        <f>M$3/M10</f>
+      <c r="M18" s="15">
+        <f t="shared" ref="M18:M21" si="44">M$3/M10</f>
         <v>4.9183779119930975</v>
       </c>
-      <c r="N18" s="24">
-        <f>N$3/N10</f>
+      <c r="N18" s="15">
+        <f t="shared" ref="N18:N21" si="45">N$3/N10</f>
         <v>4.6808163265306124</v>
       </c>
-      <c r="O18" s="24">
-        <f>O$3/O10</f>
+      <c r="O18" s="15">
+        <f t="shared" ref="O18:O21" si="46">O$3/O10</f>
         <v>4.5785771382893685</v>
       </c>
-      <c r="P18" s="25">
-        <f>P$3/P10</f>
+      <c r="P18" s="16">
+        <f t="shared" ref="P18:P21" si="47">P$3/P10</f>
         <v>4.6354744049559837</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="D19" s="23"/>
-      <c r="E19" s="15">
-        <f>E$3/E11</f>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14">
+        <f t="shared" si="36"/>
         <v>4.7928535310972524</v>
       </c>
-      <c r="F19" s="24">
-        <f>F$3/F11</f>
+      <c r="F19" s="15">
+        <f t="shared" si="37"/>
         <v>4.0814220183486238</v>
       </c>
-      <c r="G19" s="24">
-        <f>G$3/G11</f>
+      <c r="G19" s="15">
+        <f t="shared" si="38"/>
         <v>3.9785471826205026</v>
       </c>
-      <c r="H19" s="25">
-        <f>H$3/H11</f>
+      <c r="H19" s="16">
+        <f t="shared" si="39"/>
         <v>4.4848484848484853</v>
       </c>
-      <c r="I19" s="15">
-        <f>I$3/I11</f>
+      <c r="I19" s="14">
+        <f t="shared" si="40"/>
         <v>0.14015288025644432</v>
       </c>
-      <c r="J19" s="24">
-        <f>J$3/J11</f>
+      <c r="J19" s="15">
+        <f t="shared" si="41"/>
         <v>0.67306883499228931</v>
       </c>
-      <c r="K19" s="24">
-        <f>K$3/K11</f>
+      <c r="K19" s="15">
+        <f t="shared" si="42"/>
         <v>3.1677426414268521</v>
       </c>
-      <c r="L19" s="25">
-        <f>L$3/L11</f>
+      <c r="L19" s="16">
+        <f t="shared" si="43"/>
         <v>4.415220700152207</v>
       </c>
-      <c r="M19" s="24">
-        <f>M$3/M11</f>
+      <c r="M19" s="15">
+        <f t="shared" si="44"/>
         <v>5.1438368525536911</v>
       </c>
-      <c r="N19" s="24">
-        <f>N$3/N11</f>
+      <c r="N19" s="15">
+        <f t="shared" si="45"/>
         <v>5.0761331444759206</v>
       </c>
-      <c r="O19" s="24">
-        <f>O$3/O11</f>
+      <c r="O19" s="15">
+        <f t="shared" si="46"/>
         <v>4.9386101051905502</v>
       </c>
-      <c r="P19" s="25">
-        <f>P$3/P11</f>
+      <c r="P19" s="16">
+        <f t="shared" si="47"/>
         <v>5.1039310716208934</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="D20" s="23"/>
-      <c r="E20" s="15">
-        <f>E$3/E12</f>
+      <c r="D20" s="21"/>
+      <c r="E20" s="14">
+        <f t="shared" si="36"/>
         <v>4.1823797617296661</v>
       </c>
-      <c r="F20" s="24">
-        <f>F$3/F12</f>
+      <c r="F20" s="15">
+        <f t="shared" si="37"/>
         <v>3.4453049370764761</v>
       </c>
-      <c r="G20" s="24">
-        <f>G$3/G12</f>
+      <c r="G20" s="15">
+        <f t="shared" si="38"/>
         <v>4.1073731426969449</v>
       </c>
-      <c r="H20" s="25">
-        <f>H$3/H12</f>
+      <c r="H20" s="16">
+        <f t="shared" si="39"/>
         <v>4.1276595744680851</v>
       </c>
-      <c r="I20" s="15">
-        <f>I$3/I12</f>
+      <c r="I20" s="14">
+        <f t="shared" si="40"/>
         <v>0.14961427096199403</v>
       </c>
-      <c r="J20" s="24">
-        <f>J$3/J12</f>
+      <c r="J20" s="15">
+        <f t="shared" si="41"/>
         <v>0.88899176002222002</v>
       </c>
-      <c r="K20" s="24">
-        <f>K$3/K12</f>
+      <c r="K20" s="15">
+        <f t="shared" si="42"/>
         <v>3.2267053053945607</v>
       </c>
-      <c r="L20" s="25">
-        <f>L$3/L12</f>
+      <c r="L20" s="16">
+        <f t="shared" si="43"/>
         <v>4.6472284524190961</v>
       </c>
-      <c r="M20" s="24">
-        <f>M$3/M12</f>
+      <c r="M20" s="15">
+        <f t="shared" si="44"/>
         <v>5.1746550472040669</v>
       </c>
-      <c r="N20" s="24">
-        <f>N$3/N12</f>
+      <c r="N20" s="15">
+        <f t="shared" si="45"/>
         <v>5.4609523809523806</v>
       </c>
-      <c r="O20" s="24">
-        <f>O$3/O12</f>
+      <c r="O20" s="15">
+        <f t="shared" si="46"/>
         <v>4.4114294516327783</v>
       </c>
-      <c r="P20" s="25">
-        <f>P$3/P12</f>
+      <c r="P20" s="16">
+        <f t="shared" si="47"/>
         <v>5.1867931411893471</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="D21" s="23"/>
-      <c r="E21" s="15">
-        <f>E$3/E13</f>
+      <c r="D21" s="21"/>
+      <c r="E21" s="14">
+        <f t="shared" si="36"/>
         <v>3.0638939769421398</v>
       </c>
-      <c r="F21" s="24">
-        <f>F$3/F13</f>
+      <c r="F21" s="15">
+        <f t="shared" si="37"/>
         <v>2.8087205287560422</v>
       </c>
-      <c r="G21" s="24">
-        <f>G$3/G13</f>
+      <c r="G21" s="15">
+        <f t="shared" si="38"/>
         <v>2.6412475211826214</v>
       </c>
-      <c r="H21" s="25">
-        <f>H$3/H13</f>
+      <c r="H21" s="16">
+        <f t="shared" si="39"/>
         <v>2.9704117525346581</v>
       </c>
-      <c r="I21" s="15">
-        <f>I$3/I13</f>
+      <c r="I21" s="14">
+        <f t="shared" si="40"/>
         <v>0.14793311076964658</v>
       </c>
-      <c r="J21" s="24">
-        <f>J$3/J13</f>
+      <c r="J21" s="15">
+        <f t="shared" si="41"/>
         <v>1.0093556186271417</v>
       </c>
-      <c r="K21" s="24">
-        <f>K$3/K13</f>
+      <c r="K21" s="15">
+        <f t="shared" si="42"/>
         <v>2.4500677048070414</v>
       </c>
-      <c r="L21" s="25">
-        <f>L$3/L13</f>
+      <c r="L21" s="16">
+        <f t="shared" si="43"/>
         <v>3.5033816425120774</v>
       </c>
-      <c r="M21" s="24">
-        <f>M$3/M13</f>
+      <c r="M21" s="15">
+        <f t="shared" si="44"/>
         <v>3.0327729304107258</v>
       </c>
-      <c r="N21" s="24">
-        <f>N$3/N13</f>
+      <c r="N21" s="15">
+        <f t="shared" si="45"/>
         <v>3.3757211821500057</v>
       </c>
-      <c r="O21" s="24">
-        <f>O$3/O13</f>
+      <c r="O21" s="15">
+        <f t="shared" si="46"/>
         <v>3.6711960005127549</v>
       </c>
-      <c r="P21" s="25">
-        <f>P$3/P13</f>
+      <c r="P21" s="16">
+        <f t="shared" si="47"/>
         <v>3.6001519371992909</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="20">
-        <f>E14/$D6</f>
-        <v>1.0306259287448805</v>
+      <c r="E22" s="18">
+        <f t="shared" ref="E22:E25" si="48">E14/$D6</f>
+        <v>0.99457871358119687</v>
       </c>
-      <c r="F22" s="21">
-        <f>F14/$D6</f>
-        <v>2.2814102564102563</v>
+      <c r="F22" s="19">
+        <f t="shared" ref="F22:F25" si="49">F14/$D6</f>
+        <v>0.99971910112359563</v>
       </c>
-      <c r="G22" s="21">
-        <f>G14/$D6</f>
-        <v>2.3372417643774428</v>
+      <c r="G22" s="19">
+        <f t="shared" ref="G22:G25" si="50">G14/$D6</f>
+        <v>0.99204387717100584</v>
       </c>
-      <c r="H22" s="22">
-        <f>H14/$D6</f>
-        <v>2.214577709217123</v>
+      <c r="H22" s="20">
+        <f t="shared" ref="H22:H25" si="51">H14/$D6</f>
+        <v>0.95818454864008018</v>
       </c>
-      <c r="I22" s="20">
-        <f>I14/$D6</f>
+      <c r="I22" s="18">
+        <f t="shared" ref="I22:I25" si="52">I14/$D6</f>
         <v>0.26673886557465815</v>
       </c>
-      <c r="J22" s="21">
-        <f>J14/$D6</f>
+      <c r="J22" s="19">
+        <f t="shared" ref="J22:J25" si="53">J14/$D6</f>
         <v>0.26108709247627593</v>
       </c>
-      <c r="K22" s="21">
-        <f>K14/$D6</f>
+      <c r="K22" s="19">
+        <f t="shared" ref="K22:K25" si="54">K14/$D6</f>
         <v>0.26291889928253565</v>
       </c>
-      <c r="L22" s="22">
-        <f>L14/$D6</f>
+      <c r="L22" s="20">
+        <f t="shared" ref="L22:L25" si="55">L14/$D6</f>
         <v>0.2595074297063007</v>
       </c>
-      <c r="M22" s="21">
-        <f>M14/$D6</f>
-        <v>1.0350437593056614</v>
+      <c r="M22" s="19">
+        <f t="shared" ref="M22:M25" si="56">M14/$D6</f>
+        <v>0.9987735220941234</v>
       </c>
-      <c r="N22" s="21">
-        <f>N14/$D6</f>
-        <v>1.0426212815477489</v>
+      <c r="N22" s="19">
+        <f t="shared" ref="N22:N25" si="57">N14/$D6</f>
+        <v>1.0060355112639485</v>
       </c>
-      <c r="O22" s="21">
-        <f>O14/$D6</f>
-        <v>1.0406613372093023</v>
+      <c r="O22" s="19">
+        <f t="shared" ref="O22:O25" si="58">O14/$D6</f>
+        <v>1.0041725105189341</v>
       </c>
-      <c r="P22" s="22">
-        <f>P14/$D6</f>
-        <v>1.0361112123310134</v>
+      <c r="P22" s="20">
+        <f t="shared" ref="P22:P25" si="59">P14/$D6</f>
+        <v>0.99968357768167915</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="D23" s="23"/>
-      <c r="E23" s="15">
-        <f>E15/$D7</f>
-        <v>1.0273121387283237</v>
+      <c r="D23" s="21"/>
+      <c r="E23" s="14">
+        <f t="shared" si="48"/>
+        <v>0.95808625336927222</v>
       </c>
-      <c r="F23" s="24">
-        <f>F15/$D7</f>
-        <v>1.6098609069320367</v>
+      <c r="F23" s="15">
+        <f t="shared" si="49"/>
+        <v>0.95910530216263556</v>
       </c>
-      <c r="G23" s="24">
-        <f>G15/$D7</f>
-        <v>1.7873612297181898</v>
+      <c r="G23" s="15">
+        <f t="shared" si="50"/>
+        <v>0.9640718562874252</v>
       </c>
-      <c r="H23" s="25">
-        <f>H15/$D7</f>
-        <v>1.4599816942947219</v>
+      <c r="H23" s="16">
+        <f t="shared" si="51"/>
+        <v>0.96784197397694327</v>
       </c>
-      <c r="I23" s="15">
-        <f>I15/$D7</f>
+      <c r="I23" s="14">
+        <f t="shared" si="52"/>
         <v>0.056367790487887676</v>
       </c>
-      <c r="J23" s="24">
-        <f>J15/$D7</f>
+      <c r="J23" s="15">
+        <f t="shared" si="53"/>
         <v>0.116381295603481</v>
       </c>
-      <c r="K23" s="24">
-        <f>K15/$D7</f>
+      <c r="K23" s="15">
+        <f t="shared" si="54"/>
         <v>0.16790590309596448</v>
       </c>
-      <c r="L23" s="25">
-        <f>L15/$D7</f>
+      <c r="L23" s="16">
+        <f t="shared" si="55"/>
         <v>0.31820974111452388</v>
       </c>
-      <c r="M23" s="24">
-        <f>M15/$D7</f>
-        <v>1.0380217058780683</v>
+      <c r="M23" s="15">
+        <f t="shared" si="56"/>
+        <v>0.99358572125775635</v>
       </c>
-      <c r="N23" s="24">
-        <f>N15/$D7</f>
-        <v>1.0365148228488792</v>
+      <c r="N23" s="15">
+        <f t="shared" si="57"/>
+        <v>0.96662171274443698</v>
       </c>
-      <c r="O23" s="24">
-        <f>O15/$D7</f>
-        <v>1.0413424478219766</v>
+      <c r="O23" s="15">
+        <f t="shared" si="58"/>
+        <v>0.99613220081947262</v>
       </c>
-      <c r="P23" s="25">
-        <f>P15/$D7</f>
-        <v>1.0333624073266463</v>
+      <c r="P23" s="16">
+        <f t="shared" si="59"/>
+        <v>0.96334191624881427</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="D24" s="23"/>
-      <c r="E24" s="15">
-        <f>E16/$D8</f>
-        <v>1.0146292728180974</v>
+      <c r="D24" s="21"/>
+      <c r="E24" s="14">
+        <f t="shared" si="48"/>
+        <v>0.91721339500558019</v>
       </c>
-      <c r="F24" s="24">
-        <f>F16/$D8</f>
-        <v>1.2034829655930339</v>
+      <c r="F24" s="15">
+        <f t="shared" si="49"/>
+        <v>0.96001078966889197</v>
       </c>
-      <c r="G24" s="24">
-        <f>G16/$D8</f>
-        <v>1.2396666243601133</v>
+      <c r="G24" s="15">
+        <f t="shared" si="50"/>
+        <v>0.8978153629316421</v>
       </c>
-      <c r="H24" s="25">
-        <f>H16/$D8</f>
-        <v>1.1239772949696614</v>
+      <c r="H24" s="16">
+        <f t="shared" si="51"/>
+        <v>0.83114777826024033</v>
       </c>
-      <c r="I24" s="15">
-        <f>I16/$D8</f>
+      <c r="I24" s="14">
+        <f t="shared" si="52"/>
         <v>0.035519854632507224</v>
       </c>
-      <c r="J24" s="24">
-        <f>J16/$D8</f>
+      <c r="J24" s="15">
+        <f t="shared" si="53"/>
         <v>0.088861331161619886</v>
       </c>
-      <c r="K24" s="24">
-        <f>K16/$D8</f>
+      <c r="K24" s="15">
+        <f t="shared" si="54"/>
         <v>0.24504202534217009</v>
       </c>
-      <c r="L24" s="25">
-        <f>L16/$D8</f>
+      <c r="L24" s="16">
+        <f t="shared" si="55"/>
         <v>0.63660104900476222</v>
       </c>
-      <c r="M24" s="24">
-        <f>M16/$D8</f>
-        <v>1.2659116144792359</v>
+      <c r="M24" s="15">
+        <f t="shared" si="56"/>
+        <v>0.99954409959670354</v>
       </c>
-      <c r="N24" s="24">
-        <f>N16/$D8</f>
-        <v>1.0304794766731364</v>
+      <c r="N24" s="15">
+        <f t="shared" si="57"/>
+        <v>0.93017974174291096</v>
       </c>
-      <c r="O24" s="24">
-        <f>O16/$D8</f>
-        <v>1.0382091716512598</v>
+      <c r="O24" s="15">
+        <f t="shared" si="58"/>
+        <v>0.93637403956187681</v>
       </c>
-      <c r="P24" s="25">
-        <f>P16/$D8</f>
+      <c r="P24" s="16">
+        <f t="shared" si="59"/>
         <v>0.96576319543509281</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="D25" s="23"/>
-      <c r="E25" s="15">
-        <f>E17/$D9</f>
+      <c r="D25" s="21"/>
+      <c r="E25" s="14">
+        <f t="shared" si="48"/>
         <v>0.9050286441756844</v>
       </c>
-      <c r="F25" s="24">
-        <f>F17/$D9</f>
+      <c r="F25" s="15">
+        <f t="shared" si="49"/>
         <v>0.95813703055592947</v>
       </c>
-      <c r="G25" s="24">
-        <f>G17/$D9</f>
-        <v>1.1747113534316871</v>
+      <c r="G25" s="15">
+        <f t="shared" si="50"/>
+        <v>0.79314638371589441</v>
       </c>
-      <c r="H25" s="25">
-        <f>H17/$D9</f>
+      <c r="H25" s="16">
+        <f t="shared" si="51"/>
         <v>0.8314606741573034</v>
       </c>
-      <c r="I25" s="15">
-        <f>I17/$D9</f>
+      <c r="I25" s="14">
+        <f t="shared" si="52"/>
         <v>0.027940375714674649</v>
       </c>
-      <c r="J25" s="24">
-        <f>J17/$D9</f>
+      <c r="J25" s="15">
+        <f t="shared" si="53"/>
         <v>0.084593156429502769</v>
       </c>
-      <c r="K25" s="24">
-        <f>K17/$D9</f>
+      <c r="K25" s="15">
+        <f t="shared" si="54"/>
         <v>0.3649037007159423</v>
       </c>
-      <c r="L25" s="25">
-        <f>L17/$D9</f>
+      <c r="L25" s="16">
+        <f t="shared" si="55"/>
         <v>0.69145690312738362</v>
       </c>
-      <c r="M25" s="24">
-        <f>M17/$D9</f>
-        <v>1.1433729139922979</v>
+      <c r="M25" s="15">
+        <f t="shared" si="56"/>
+        <v>0.98527378318584069</v>
       </c>
-      <c r="N25" s="24">
-        <f>N17/$D9</f>
+      <c r="N25" s="15">
+        <f t="shared" si="57"/>
         <v>0.95950468540829992</v>
       </c>
-      <c r="O25" s="24">
-        <f>O17/$D9</f>
+      <c r="O25" s="15">
+        <f t="shared" si="58"/>
         <v>0.98226780079571963</v>
       </c>
-      <c r="P25" s="25">
-        <f>P17/$D9</f>
+      <c r="P25" s="16">
+        <f t="shared" si="59"/>
         <v>0.92043247442703613</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="D26" s="23"/>
-      <c r="E26" s="15">
-        <f>E18/$D10</f>
+      <c r="D26" s="21"/>
+      <c r="E26" s="14">
+        <f t="shared" ref="E26:E29" si="60">E18/$D10</f>
         <v>0.85010463378176371</v>
       </c>
-      <c r="F26" s="24">
-        <f>F18/$D10</f>
+      <c r="F26" s="15">
+        <f t="shared" ref="F26:F29" si="61">F18/$D10</f>
         <v>0.86357294510160754</v>
       </c>
-      <c r="G26" s="24">
-        <f>G18/$D10</f>
-        <v>0.80411635565312845</v>
+      <c r="G26" s="15">
+        <f t="shared" ref="G26:G29" si="62">G18/$D10</f>
+        <v>0.70709459459459467</v>
       </c>
-      <c r="H26" s="25">
-        <f>H18/$D10</f>
+      <c r="H26" s="16">
+        <f t="shared" ref="H26:H29" si="63">H18/$D10</f>
         <v>0.80178721027645916</v>
       </c>
-      <c r="I26" s="15">
-        <f>I18/$D10</f>
+      <c r="I26" s="14">
+        <f t="shared" ref="I26:I29" si="64">I18/$D10</f>
         <v>0.025166143720171823</v>
       </c>
-      <c r="J26" s="24">
-        <f>J18/$D10</f>
+      <c r="J26" s="15">
+        <f t="shared" ref="J26:J29" si="65">J18/$D10</f>
         <v>0.10067979658528911</v>
       </c>
-      <c r="K26" s="24">
-        <f>K18/$D10</f>
+      <c r="K26" s="15">
+        <f t="shared" ref="K26:K29" si="66">K18/$D10</f>
         <v>0.48354768665441783</v>
       </c>
-      <c r="L26" s="25">
-        <f>L18/$D10</f>
+      <c r="L26" s="16">
+        <f t="shared" ref="L26:L29" si="67">L18/$D10</f>
         <v>0.73540372670807452</v>
       </c>
-      <c r="M26" s="24">
-        <f>M18/$D10</f>
+      <c r="M26" s="15">
+        <f t="shared" ref="M26:M29" si="68">M18/$D10</f>
         <v>0.98367558239861952</v>
       </c>
-      <c r="N26" s="24">
-        <f>N18/$D10</f>
+      <c r="N26" s="15">
+        <f t="shared" ref="N26:N29" si="69">N18/$D10</f>
         <v>0.93616326530612248</v>
       </c>
-      <c r="O26" s="24">
-        <f>O18/$D10</f>
+      <c r="O26" s="15">
+        <f t="shared" ref="O26:O29" si="70">O18/$D10</f>
         <v>0.91571542765787373</v>
       </c>
-      <c r="P26" s="25">
-        <f>P18/$D10</f>
+      <c r="P26" s="16">
+        <f t="shared" ref="P26:P29" si="71">P18/$D10</f>
         <v>0.92709488099119675</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="D27" s="23"/>
-      <c r="E27" s="15">
-        <f>E19/$D11</f>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14">
+        <f t="shared" si="60"/>
         <v>0.79880892184954211</v>
       </c>
-      <c r="F27" s="24">
-        <f>F19/$D11</f>
+      <c r="F27" s="15">
+        <f t="shared" si="61"/>
         <v>0.68023700305810397</v>
       </c>
-      <c r="G27" s="24">
-        <f>G19/$D11</f>
+      <c r="G27" s="15">
+        <f t="shared" si="62"/>
         <v>0.66309119710341713</v>
       </c>
-      <c r="H27" s="25">
-        <f>H19/$D11</f>
+      <c r="H27" s="16">
+        <f t="shared" si="63"/>
         <v>0.74747474747474751</v>
       </c>
-      <c r="I27" s="15">
-        <f>I19/$D11</f>
+      <c r="I27" s="14">
+        <f t="shared" si="64"/>
         <v>0.023358813376074053</v>
       </c>
-      <c r="J27" s="24">
-        <f>J19/$D11</f>
+      <c r="J27" s="15">
+        <f t="shared" si="65"/>
         <v>0.11217813916538155</v>
       </c>
-      <c r="K27" s="24">
-        <f>K19/$D11</f>
+      <c r="K27" s="15">
+        <f t="shared" si="66"/>
         <v>0.52795710690447539</v>
       </c>
-      <c r="L27" s="25">
-        <f>L19/$D11</f>
+      <c r="L27" s="16">
+        <f t="shared" si="67"/>
         <v>0.7358701166920345</v>
       </c>
-      <c r="M27" s="24">
-        <f>M19/$D11</f>
+      <c r="M27" s="15">
+        <f t="shared" si="68"/>
         <v>0.85730614209228184</v>
       </c>
-      <c r="N27" s="24">
-        <f>N19/$D11</f>
+      <c r="N27" s="15">
+        <f t="shared" si="69"/>
         <v>0.84602219074598672</v>
       </c>
-      <c r="O27" s="24">
-        <f>O19/$D11</f>
+      <c r="O27" s="15">
+        <f t="shared" si="70"/>
         <v>0.823101684198425</v>
       </c>
-      <c r="P27" s="25">
-        <f>P19/$D11</f>
+      <c r="P27" s="16">
+        <f t="shared" si="71"/>
         <v>0.85065517860348228</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="D28" s="23"/>
-      <c r="E28" s="15">
-        <f>E20/$D12</f>
+      <c r="D28" s="21"/>
+      <c r="E28" s="14">
+        <f t="shared" si="60"/>
         <v>0.59748282310423806</v>
       </c>
-      <c r="F28" s="24">
-        <f>F20/$D12</f>
+      <c r="F28" s="15">
+        <f t="shared" si="61"/>
         <v>0.49218641958235371</v>
       </c>
-      <c r="G28" s="24">
-        <f>G20/$D12</f>
+      <c r="G28" s="15">
+        <f t="shared" si="62"/>
         <v>0.5867675918138493</v>
       </c>
-      <c r="H28" s="25">
-        <f>H20/$D12</f>
+      <c r="H28" s="16">
+        <f t="shared" si="63"/>
         <v>0.58966565349544076</v>
       </c>
-      <c r="I28" s="15">
-        <f>I20/$D12</f>
+      <c r="I28" s="14">
+        <f t="shared" si="64"/>
         <v>0.021373467280284861</v>
       </c>
-      <c r="J28" s="24">
-        <f>J20/$D12</f>
+      <c r="J28" s="15">
+        <f t="shared" si="65"/>
         <v>0.12699882286031713</v>
       </c>
-      <c r="K28" s="24">
-        <f>K20/$D12</f>
+      <c r="K28" s="15">
+        <f t="shared" si="66"/>
         <v>0.46095790077065152</v>
       </c>
-      <c r="L28" s="25">
-        <f>L20/$D12</f>
+      <c r="L28" s="16">
+        <f t="shared" si="67"/>
         <v>0.66388977891701373</v>
       </c>
-      <c r="M28" s="24">
-        <f>M20/$D12</f>
+      <c r="M28" s="15">
+        <f t="shared" si="68"/>
         <v>0.73923643531486671</v>
       </c>
-      <c r="N28" s="24">
-        <f>N20/$D12</f>
+      <c r="N28" s="15">
+        <f t="shared" si="69"/>
         <v>0.7801360544217687</v>
       </c>
-      <c r="O28" s="24">
-        <f>O20/$D12</f>
+      <c r="O28" s="15">
+        <f t="shared" si="70"/>
         <v>0.63020420737611116</v>
       </c>
-      <c r="P28" s="25">
-        <f>P20/$D12</f>
+      <c r="P28" s="16">
+        <f t="shared" si="71"/>
         <v>0.74097044874133533</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="D29" s="26"/>
-      <c r="E29" s="27">
-        <f>E21/$D13</f>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23">
+        <f t="shared" si="60"/>
         <v>0.38298674711776748</v>
       </c>
-      <c r="F29" s="28">
-        <f>F21/$D13</f>
+      <c r="F29" s="24">
+        <f t="shared" si="61"/>
         <v>0.35109006609450527</v>
       </c>
-      <c r="G29" s="28">
-        <f>G21/$D13</f>
+      <c r="G29" s="24">
+        <f t="shared" si="62"/>
         <v>0.33015594014782768</v>
       </c>
-      <c r="H29" s="29">
-        <f>H21/$D13</f>
+      <c r="H29" s="25">
+        <f t="shared" si="63"/>
         <v>0.37130146906683226</v>
       </c>
-      <c r="I29" s="27">
-        <f>I21/$D13</f>
+      <c r="I29" s="23">
+        <f t="shared" si="64"/>
         <v>0.018491638846205822</v>
       </c>
-      <c r="J29" s="28">
-        <f>J21/$D13</f>
+      <c r="J29" s="24">
+        <f t="shared" si="65"/>
         <v>0.12616945232839272</v>
       </c>
-      <c r="K29" s="28">
-        <f>K21/$D13</f>
+      <c r="K29" s="24">
+        <f t="shared" si="66"/>
         <v>0.30625846310088017</v>
       </c>
-      <c r="L29" s="29">
-        <f>L21/$D13</f>
+      <c r="L29" s="25">
+        <f t="shared" si="67"/>
         <v>0.43792270531400967</v>
       </c>
-      <c r="M29" s="28">
-        <f>M21/$D13</f>
+      <c r="M29" s="24">
+        <f t="shared" si="68"/>
         <v>0.37909661630134073</v>
       </c>
-      <c r="N29" s="28">
-        <f>N21/$D13</f>
+      <c r="N29" s="24">
+        <f t="shared" si="69"/>
         <v>0.42196514776875071</v>
       </c>
-      <c r="O29" s="28">
-        <f>O21/$D13</f>
+      <c r="O29" s="24">
+        <f t="shared" si="70"/>
         <v>0.45889950006409436</v>
       </c>
-      <c r="P29" s="29">
-        <f>P21/$D13</f>
+      <c r="P29" s="25">
+        <f t="shared" si="71"/>
         <v>0.45001899214991137</v>
       </c>
     </row>
